--- a/biology/Botanique/Hottonia_palustris/Hottonia_palustris.xlsx
+++ b/biology/Botanique/Hottonia_palustris/Hottonia_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottonia palustris est une espèce de plantes à fleurs dicotylédone de la famille des Primulacées. Elle est appelée en français Hottonie des marais ou localement « Millefeuille aquatique », « Millefeuille d'eau » (Water-violet pour les Anglais).
 C'est une espèce qui se plaît dans les mares forestières peu profondes, même en situation très ombragée.
-Le nom de genre scientifique Hottonia a été attribué en l'honneur du botaniste hollandais Peter Hotton (en) (1648–1709)[1].
+Le nom de genre scientifique Hottonia a été attribué en l'honneur du botaniste hollandais Peter Hotton (en) (1648–1709).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante aquatique herbacée hermaphrodite, subglabre, vivace (20 à 70 cm).
 Souche rampante émettant des tiges courtes (plus longues dans une eau plus profonde, plus chaude et éclairée (en aquarium par exemple), les tiges sont feuillées, submergées mais survivent en situation exondée provisoire tant que le sol reste humide.
@@ -551,7 +565,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mares forestières ou périforestières, étangs forestiers ou boisés, fossés d'eau propre à pH légèrement acide à légèrement basique.
 Altitude : 0 à 400 m au moins.</t>
@@ -582,7 +598,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Origine géographique : Europe et Asie du nord et tempérées.
 En France :
@@ -616,7 +634,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Les zones humides forestières sont ses habitats de prédilection.
@@ -657,7 +677,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante a autrefois été dénommée :
 Breviglandum palustre (L.) Dulac [1867, Fl. Hautes-Pyr. : 423]
@@ -691,7 +713,9 @@
           <t>Menaces et statut</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante était autrefois commune en Europe du Nord, mais est en forte régression depuis le début du XXe siècle en raison de la destruction, dégradation et régression des zones humides (forestières notamment), mais aussi de l'eutrophisation générale des milieux.
 Elle est en France maintenant protégée dans de nombreuses (ex)régions (Aquitaine, Centre, Haute-Normandie, Pas-de-Calais (sur liste rouge)), et semble absente ou disparue dans les départements du sud-est.. 
@@ -724,7 +748,9 @@
           <t>À ne pas confondre avec</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Myriophyllum (cf. feuilles finement divisées en lanières filiformes).
 Hottonia inflata (Hottonie enflée, Hottonie américaine)
